--- a/exec/symlex_vpn_windows/api_test_cases/report_summary_.xlsx
+++ b/exec/symlex_vpn_windows/api_test_cases/report_summary_.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\exec\symlex_vpn_windows\api_test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70F09FC-40AB-447B-828D-7B713BD5A883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F564DF-1FC9-4B66-A7EC-A4F47E02E27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="email_verification_username_pos" sheetId="1" r:id="rId1"/>
+    <sheet name="email_veri_username_neg" sheetId="3" r:id="rId1"/>
+    <sheet name="email_verification_username_pos" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Execute</t>
   </si>
@@ -168,29 +169,29 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,11 +472,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78483906-7C0C-4C05-BADA-07DE0F17BBD0}">
   <dimension ref="E3:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,48 +486,114 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="4">
-        <v>20</v>
+      <c r="F4" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="5">
-        <v>18</v>
+      <c r="F5" s="3">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="E3:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="5:6" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
